--- a/biology/Botanique/Acanthonitschkea/Acanthonitschkea.xlsx
+++ b/biology/Botanique/Acanthonitschkea/Acanthonitschkea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthonitschkea est un genre de champignons ascomycètes de la famille des Nitschkiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acanthonitschkea a été décrit pour la première fois par Carlos Luis Spegazzini en 1908 dans la revue Anales del Museo Nacional de Historia Natural Buenos Aires[1].
-En 1993, deux mycologues V. Alstrup et M. Olech créent le genre Hystrix typifié avec Hystrix peltigericola. Mais deux ans plus tard, O.E. Eriksson et R. Santesson le renomme Acanthonitschkea peltigericola. Hystrix n'est donc plus un nom de genre valide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthonitschkea a été décrit pour la première fois par Carlos Luis Spegazzini en 1908 dans la revue Anales del Museo Nacional de Historia Natural Buenos Aires.
+En 1993, deux mycologues V. Alstrup et M. Olech créent le genre Hystrix typifié avec Hystrix peltigericola. Mais deux ans plus tard, O.E. Eriksson et R. Santesson le renomme Acanthonitschkea peltigericola. Hystrix n'est donc plus un nom de genre valide.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 mars 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 mars 2014) :
 Acanthonitschkea amarkantakensis
 Acanthonitschkea argentinensis
 Acanthonitschkea coloradensis
@@ -553,7 +569,7 @@
 Acanthonitschkea macrobarbata
 Acanthonitschkea peltigericola
 Acanthonitschkea tristis
-Selon Index Fungorum                                      (24 mars 2014)[4] :
+Selon Index Fungorum                                      (24 mars 2014) :
 Acanthonitschkea amarkantakensis Patel, A.K. Pandey &amp; R.C. Rajak 2003
 Acanthonitschkea argentinensis Speg. 1908
 Acanthonitschkea coloradensis E.K. Cash &amp; R.W. Davidson 1940
@@ -562,7 +578,7 @@
 Acanthonitschkea mangiferae (Vaidya) A. Pande 2008
 Acanthonitschkea peltigericola (Alstrup &amp; Olech) O.E. Erikss. &amp; R. Sant. 1995
 Acanthonitschkea tristis (J. Kickx f.) Nannf. 1975
-Selon NCBI  (24 mars 2014)[5] :
+Selon NCBI  (24 mars 2014) :
 Acanthonitschkea argentinensis
 Acanthonitschkea tristis
 </t>
